--- a/biology/Botanique/Acacia_retinodes/Acacia_retinodes.xlsx
+++ b/biology/Botanique/Acacia_retinodes/Acacia_retinodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mimosa des quatre saisons ou Mimosa d'été (Acacia retinodes Schltdl.), parfois appelé Mimosa résineux, est un petit arbre de la famille des Fabaceae.
 Comme son nom l'indique, il peut fleurir à plusieurs périodes de l'année.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-organes reproducteurs :
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organes reproducteurs :
 Type d'inflorescence : racème simple
 répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame
@@ -556,18 +573,20 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia floribunda sensu auct.
 Acacia fragrans Pottier
 Acacia longissima Chopinet
-Acacia provincialis A. Camus[2]
+Acacia provincialis A. Camus
 Acacia retinodes Schltdl. var. floribunda H.Vilm.
 Acacia retinoide Schltr.
 Acacia retinoides Schltr.
 Acacia rhetinoides Schltr.
 Acacia rostellifera sensu auct.
-Acacia semperflorens A. Berger[3]
+Acacia semperflorens A. Berger
 </t>
         </is>
       </c>
@@ -596,7 +615,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acacia retinodes var. retinodes
 Acacia retinodes var. uncifolia</t>
